--- a/distance.xlsx
+++ b/distance.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="29" documentId="11_AD4D3A34644D791BC36E4018E4DD63225BDEDD9C" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{3A8FDD5C-92E5-4998-AB9C-F60A1D4E3169}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBC8B17F-EDFF-4C27-B905-2883B1C5AD13}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -355,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -391,11 +391,11 @@
       </c>
       <c r="D2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -403,7 +403,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:E21" ca="1" si="1">CHOOSE(RANDBETWEEN(1,15),"2","1","0","3","0","2","5","6","8","4","6","1","0","5","2")</f>
+        <f t="shared" ref="B3:E5" ca="1" si="1">CHOOSE(RANDBETWEEN(1,15),"2","1","0","3","0","2","5","6","8","4","6","1","0","5","2")</f>
         <v>3</v>
       </c>
       <c r="C3" t="str">
@@ -416,7 +416,7 @@
       </c>
       <c r="E3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -425,19 +425,19 @@
       </c>
       <c r="B4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>8</v>
       </c>
-      <c r="D4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
       <c r="E4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -446,355 +446,19 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
-      <c r="C5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
       <c r="D5" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
         <v>6</v>
-      </c>
-      <c r="B7" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="C19" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="C20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C21" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D21" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/distance.xlsx
+++ b/distance.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBC8B17F-EDFF-4C27-B905-2883B1C5AD13}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="14_{BD7FB14F-2D80-4649-BDA0-E48C290DB8F8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{D6F413A4-4F67-45CA-8285-FEA1063C8C42}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>A</t>
   </si>
@@ -38,6 +38,48 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>4A</t>
+  </si>
+  <si>
+    <t>5A</t>
+  </si>
+  <si>
+    <t>6A</t>
+  </si>
+  <si>
+    <t>7A</t>
+  </si>
+  <si>
+    <t>8A</t>
+  </si>
+  <si>
+    <t>9A</t>
+  </si>
+  <si>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>3B</t>
+  </si>
+  <si>
+    <t>4B</t>
+  </si>
+  <si>
+    <t>5B</t>
   </si>
 </sst>
 </file>
@@ -73,8 +115,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -355,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -378,12 +421,12 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
       <c r="B2" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,15),"2","1","0","3","0","2","5","6","8","4","6","1","0","5","2")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2:E2" ca="1" si="0">CHOOSE(RANDBETWEEN(1,15),"2","1","0","3","0","2","5","6","8","4","6","1","0","5","2")</f>
@@ -391,74 +434,284 @@
       </c>
       <c r="D2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2" t="str">
         <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:E15" ca="1" si="1">CHOOSE(RANDBETWEEN(1,15),"2","1","0","3","0","2","5","6","8","4","6","1","0","5","2")</f>
+        <v>5</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="str">
-        <f t="shared" ref="B3:E5" ca="1" si="1">CHOOSE(RANDBETWEEN(1,15),"2","1","0","3","0","2","5","6","8","4","6","1","0","5","2")</f>
+      <c r="D3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
-      <c r="C3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D3" t="str">
+      <c r="D4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
-      <c r="E3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="C5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
-      <c r="B4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D4" t="str">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>8</v>
       </c>
-      <c r="E4" t="str">
+      <c r="C12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C14" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="C5" t="str">
+      <c r="D14" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
-      <c r="D5" t="str">
+      <c r="E14" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D15" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
-      <c r="E5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+      <c r="E15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
